--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43836,6 +43836,43 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43873,6 +43873,41 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>95600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43908,6 +43908,41 @@
         <v>95600</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43943,6 +43943,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43980,6 +43980,41 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44015,6 +44015,43 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44052,6 +44052,41 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44087,6 +44087,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44122,6 +44122,43 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44159,6 +44159,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>283000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44194,6 +44194,41 @@
         <v>283000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>74000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44229,6 +44229,43 @@
         <v>74000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44266,6 +44266,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44301,6 +44301,43 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44338,6 +44338,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>74600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44373,6 +44373,78 @@
         <v>74600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44445,6 +44445,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44480,6 +44480,43 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2193"/>
+  <dimension ref="A1:I2194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78327,6 +78327,43 @@
         </is>
       </c>
     </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2194" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2194" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2194"/>
+  <dimension ref="A1:I2195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78364,6 +78364,43 @@
         </is>
       </c>
     </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2195" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2195" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2195"/>
+  <dimension ref="A1:I2196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78401,6 +78401,43 @@
         </is>
       </c>
     </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2196"/>
+  <dimension ref="A1:I2197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78438,6 +78438,43 @@
         </is>
       </c>
     </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2197"/>
+  <dimension ref="A1:I2198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78475,6 +78475,43 @@
         </is>
       </c>
     </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2198"/>
+  <dimension ref="A1:I2199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78512,6 +78512,43 @@
         </is>
       </c>
     </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2199"/>
+  <dimension ref="A1:I2200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78549,6 +78549,43 @@
         </is>
       </c>
     </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2200" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2200" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2200"/>
+  <dimension ref="A1:I2201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78586,6 +78586,43 @@
         </is>
       </c>
     </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2201" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2201" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2201"/>
+  <dimension ref="A1:I2202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78623,6 +78623,43 @@
         </is>
       </c>
     </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2202" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2202" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2202"/>
+  <dimension ref="A1:I2203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78660,6 +78660,43 @@
         </is>
       </c>
     </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2203" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2203" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2203"/>
+  <dimension ref="A1:I2204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78697,6 +78697,43 @@
         </is>
       </c>
     </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2204" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2204" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2204"/>
+  <dimension ref="A1:I2205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78734,6 +78734,43 @@
         </is>
       </c>
     </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2205" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2205" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2205"/>
+  <dimension ref="A1:I2206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78771,6 +78771,43 @@
         </is>
       </c>
     </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2206" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2206"/>
+  <dimension ref="A1:I2207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78808,6 +78808,43 @@
         </is>
       </c>
     </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2207" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2207" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5568.xlsx
+++ b/data/5568.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2207"/>
+  <dimension ref="A1:I2208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78845,6 +78845,43 @@
         </is>
       </c>
     </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>5568</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>APB</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
